--- a/src/OCRProject/Output/Comparision/BestModelRanking.xlsx
+++ b/src/OCRProject/Output/Comparision/BestModelRanking.xlsx
@@ -105,7 +105,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="0">
-        <v>0.7983943852810429</v>
+        <v>0.8004939086307193</v>
       </c>
     </row>
     <row r="3">
@@ -116,7 +116,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="0">
-        <v>0.7425909666350426</v>
+        <v>0.7816671902446041</v>
       </c>
     </row>
     <row r="4">
@@ -127,7 +127,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="0">
-        <v>0.7183013734270666</v>
+        <v>0.7167444609815515</v>
       </c>
     </row>
     <row r="5">
@@ -138,7 +138,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="0">
-        <v>0.6315746084089036</v>
+        <v>0.6309682187730968</v>
       </c>
     </row>
     <row r="6">
@@ -149,7 +149,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="0">
-        <v>0.6000692410275155</v>
+        <v>0.5969440949397558</v>
       </c>
     </row>
   </sheetData>

--- a/src/OCRProject/Output/Comparision/BestModelRanking.xlsx
+++ b/src/OCRProject/Output/Comparision/BestModelRanking.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Rank</t>
   </si>
@@ -26,16 +26,13 @@
     <t xml:space="preserve">Deskewed</t>
   </si>
   <si>
+    <t xml:space="preserve">GlobalThreshold</t>
+  </si>
+  <si>
     <t xml:space="preserve">SaturationAdjusted</t>
   </si>
   <si>
-    <t xml:space="preserve">GlobalThreshold</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grayscale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shifted</t>
   </si>
 </sst>
 </file>
@@ -80,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -105,7 +102,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="0">
-        <v>0.8004939086307193</v>
+        <v>1.0255238920448608</v>
       </c>
     </row>
     <row r="3">
@@ -116,7 +113,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="0">
-        <v>0.7816671902446041</v>
+        <v>0.782737150087764</v>
       </c>
     </row>
     <row r="4">
@@ -127,7 +124,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="0">
-        <v>0.7167444609815515</v>
+        <v>0.7414386078581587</v>
       </c>
     </row>
     <row r="5">
@@ -138,18 +135,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="0">
-        <v>0.6309682187730968</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="0">
-        <v>0.5969440949397558</v>
+        <v>0.6253668763102725</v>
       </c>
     </row>
   </sheetData>

--- a/src/OCRProject/Output/Comparision/BestModelRanking.xlsx
+++ b/src/OCRProject/Output/Comparision/BestModelRanking.xlsx
@@ -23,15 +23,18 @@
     <t xml:space="preserve">Final Score</t>
   </si>
   <si>
+    <t xml:space="preserve">Grayscale</t>
+  </si>
+  <si>
     <t xml:space="preserve">GlobalThreshold_110</t>
   </si>
   <si>
+    <t xml:space="preserve">GlobalThreshold_120</t>
+  </si>
+  <si>
     <t xml:space="preserve">GlobalThreshold_100</t>
   </si>
   <si>
-    <t xml:space="preserve">GlobalThreshold_120</t>
-  </si>
-  <si>
     <t xml:space="preserve">GlobalThreshold_80</t>
   </si>
   <si>
@@ -44,7 +47,10 @@
     <t xml:space="preserve">SaturationAdjusted_1.6</t>
   </si>
   <si>
-    <t xml:space="preserve">Grayscale</t>
+    <t xml:space="preserve">SaturationAdjusted_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_2.5</t>
   </si>
   <si>
     <t xml:space="preserve">SaturationAdjusted_1.2</t>
@@ -53,19 +59,13 @@
     <t xml:space="preserve">SaturationAdjusted_0.9</t>
   </si>
   <si>
-    <t xml:space="preserve">SaturationAdjusted_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SaturationAdjusted_2.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">SaturationAdjusted_0.6</t>
   </si>
   <si>
+    <t xml:space="preserve">Deskewed</t>
+  </si>
+  <si>
     <t xml:space="preserve">AdaptiveThreshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deskewed</t>
   </si>
 </sst>
 </file>
@@ -135,7 +135,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="0">
-        <v>0.8368841631084085</v>
+        <v>0.864168015978464</v>
       </c>
     </row>
     <row r="3">
@@ -146,7 +146,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="0">
-        <v>0.8273632369752305</v>
+        <v>0.860015532847764</v>
       </c>
     </row>
     <row r="4">
@@ -157,7 +157,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="0">
-        <v>0.8218795311719619</v>
+        <v>0.8560936857310822</v>
       </c>
     </row>
     <row r="5">
@@ -168,7 +168,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="0">
-        <v>0.8112331972418402</v>
+        <v>0.8546495230019616</v>
       </c>
     </row>
     <row r="6">
@@ -179,7 +179,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="0">
-        <v>0.8058279491005591</v>
+        <v>0.8511698656729203</v>
       </c>
     </row>
     <row r="7">
@@ -190,7 +190,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="0">
-        <v>0.7993309516915905</v>
+        <v>0.8492934984363498</v>
       </c>
     </row>
     <row r="8">
@@ -201,7 +201,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="0">
-        <v>0.7952055468507507</v>
+        <v>0.8396694152356505</v>
       </c>
     </row>
     <row r="9">
@@ -212,7 +212,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="0">
-        <v>0.7862111064241275</v>
+        <v>0.823122956281134</v>
       </c>
     </row>
     <row r="10">
@@ -223,7 +223,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="0">
-        <v>0.774657140176526</v>
+        <v>0.8228740326231188</v>
       </c>
     </row>
     <row r="11">
@@ -234,7 +234,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="0">
-        <v>0.7653864697235181</v>
+        <v>0.8220078050912853</v>
       </c>
     </row>
     <row r="12">
@@ -245,7 +245,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="0">
-        <v>0.7647899135638919</v>
+        <v>0.8174526300515413</v>
       </c>
     </row>
     <row r="13">
@@ -256,7 +256,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="0">
-        <v>0.764266708852764</v>
+        <v>0.8132779219790599</v>
       </c>
     </row>
     <row r="14">
@@ -267,7 +267,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="0">
-        <v>0.7627406759400014</v>
+        <v>0.8119115249116052</v>
       </c>
     </row>
     <row r="15">
@@ -278,7 +278,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="0">
-        <v>0.6227185472942895</v>
+        <v>0.6910655394466627</v>
       </c>
     </row>
     <row r="16">
@@ -289,7 +289,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="0">
-        <v>0.6012653832497389</v>
+        <v>0.6406122741131723</v>
       </c>
     </row>
   </sheetData>
